--- a/biology/Botanique/Hypolytrum/Hypolytrum.xlsx
+++ b/biology/Botanique/Hypolytrum/Hypolytrum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hypolytrum est un genre de plantes de la famille des Cyperaceae.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Catalogue of Life                                   (25 octobre 2017)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (25 octobre 2017) :
 Hypolytrum africanum Nees ex Steud.
 Hypolytrum amorimii M.Alves &amp; W.W.Thomas
 Hypolytrum amplum Poepp. &amp; Kunth
@@ -574,15 +588,15 @@
 Hypolytrum turgidum C.B.Clarke
 Hypolytrum unispicatum Sosef &amp; D.A.Simpson
 Hypolytrum verticillatum T.Koyama
-Selon ITIS      (25 octobre 2017)[3] :
+Selon ITIS      (25 octobre 2017) :
 Hypolytrum dissitiflorum Steud.
 Hypolytrum flavinux (T. Koyama) D.A. Simpson
-Selon NCBI  (25 octobre 2017)[4] :
+Selon NCBI  (25 octobre 2017) :
 Hypolytrum bullatum
 Hypolytrum longifolium
 Hypolytrum nemorum
 Hypolytrum testui
-Selon The Plant List            (25 octobre 2017)[5] :
+Selon The Plant List            (25 octobre 2017) :
 Hypolytrum africanum Nees ex Steud.
 Hypolytrum amorimii M.Alves &amp; W.W.Thomas
 Hypolytrum amplum Kunth
@@ -643,7 +657,7 @@
 Hypolytrum unispicatum Sosef &amp; D.A.Simpson
 Hypolytrum unispiculatum Sosef &amp; D.A. Simpson
 Hypolytrum verticillatum T.Koyama
-Selon Tropicos                                           (25 octobre 2017)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (25 octobre 2017) (Attention liste brute contenant possiblement des synonymes) :
 Hypolytrum africanum Nees ex Steud.
 Hypolytrum albidum Willd. ex Kunth
 Hypolytrum amorimii M. Alves &amp; W.W. Thomas
